--- a/payslip employees.xlsl.xlsx
+++ b/payslip employees.xlsl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uncommonstudent\Desktop\python nomsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB9D896-63CE-4F43-B8AA-85830F01F205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C80A69-E530-47EE-9CDC-BE2011C8CFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>Employee ID</t>
   </si>
@@ -52,12 +52,6 @@
     <t>Deductions</t>
   </si>
   <si>
-    <t>Bank Account (Optional)</t>
-  </si>
-  <si>
-    <t>Date Issued</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -215,6 +209,9 @@
   </si>
   <si>
     <t>Marketing</t>
+  </si>
+  <si>
+    <t>Bank Account</t>
   </si>
 </sst>
 </file>
@@ -588,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,33 +637,31 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>700</v>
@@ -678,33 +673,31 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="2">
-        <v>45752</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>900</v>
@@ -716,33 +709,31 @@
         <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="2">
-        <v>45752</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <v>1200</v>
@@ -754,33 +745,31 @@
         <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="2">
-        <v>45752</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>1500</v>
@@ -792,33 +781,31 @@
         <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="2">
-        <v>45752</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>900</v>
@@ -830,33 +817,31 @@
         <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="2">
-        <v>45752</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H7">
         <v>700</v>
@@ -868,33 +853,31 @@
         <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="2">
-        <v>45752</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8">
         <v>900</v>
@@ -906,33 +889,31 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="2">
-        <v>45752</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H9">
         <v>700</v>
@@ -944,33 +925,31 @@
         <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="2">
-        <v>45752</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10">
         <v>900</v>
@@ -982,33 +961,31 @@
         <v>90</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="2">
-        <v>45752</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>53</v>
       </c>
       <c r="H11">
         <v>700</v>
@@ -1020,11 +997,9 @@
         <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="2">
-        <v>45752</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
